--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/固定资产原价合计.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/固定资产原价合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1498.16745</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3592.73393</v>
-      </c>
-      <c r="D2" t="n">
-        <v>401.67846</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.51669</v>
-      </c>
-      <c r="F2" t="n">
-        <v>300.93095</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5560.53267</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1359.04899</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1062.81527</v>
-      </c>
-      <c r="J2" t="n">
-        <v>599.6560899999999</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1109.94184</v>
-      </c>
-      <c r="L2" t="n">
-        <v>163.79827</v>
-      </c>
-      <c r="M2" t="n">
-        <v>221.86521</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2217.05976</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1797.13179</v>
-      </c>
-      <c r="P2" t="n">
-        <v>370.71924</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>717.44164</v>
-      </c>
-      <c r="R2" t="n">
-        <v>404.24579</v>
-      </c>
-      <c r="S2" t="n">
-        <v>249.74216</v>
-      </c>
-      <c r="T2" t="n">
-        <v>565.38114</v>
-      </c>
-      <c r="U2" t="n">
-        <v>912.02743</v>
-      </c>
-      <c r="V2" t="n">
-        <v>441.59901</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2969.136</v>
-      </c>
-      <c r="X2" t="n">
-        <v>15752.50093</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2561.78</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2086.11379</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>381.11012</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>3284.1657</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>5190.98751</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3446.18863</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1272.92676</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>78646.29786999999</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1426.22738</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1210.28247</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>3948.42661</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>435.63046</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>937.85928</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1673.09107</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1462.35911</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>6457.43864</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>164.18333</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1523.62849</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3908.14982</v>
-      </c>
-      <c r="D3" t="n">
-        <v>435.12804</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.22116</v>
-      </c>
-      <c r="F3" t="n">
-        <v>335.10358</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6027.4178</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1152.06688</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1218.83671</v>
-      </c>
-      <c r="J3" t="n">
-        <v>716.31065</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1247.1848</v>
-      </c>
-      <c r="L3" t="n">
-        <v>181.02679</v>
-      </c>
-      <c r="M3" t="n">
-        <v>240.59496</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2305.71022</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1942.40463</v>
-      </c>
-      <c r="P3" t="n">
-        <v>392.6651</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>788.0467200000001</v>
-      </c>
-      <c r="R3" t="n">
-        <v>450.14246</v>
-      </c>
-      <c r="S3" t="n">
-        <v>237.11883</v>
-      </c>
-      <c r="T3" t="n">
-        <v>623.78147</v>
-      </c>
-      <c r="U3" t="n">
-        <v>972.75548</v>
-      </c>
-      <c r="V3" t="n">
-        <v>446.47691</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3315.96485</v>
-      </c>
-      <c r="X3" t="n">
-        <v>18189.35553</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3084.24409</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2279.2682</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>418.14524</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>3605.27937</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5974.44604</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3632.04453</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1422.77038</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>86293.09776999999</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1617.79453</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1331.0733</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>4020.92792</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>449.89311</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>998.38393</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1703.67383</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1526.57174</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>6993.0761</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>172.88169</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1574.39804</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4221.55473</v>
-      </c>
-      <c r="D4" t="n">
-        <v>473.35554</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.43897</v>
-      </c>
-      <c r="F4" t="n">
-        <v>371.48825</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6518.83484</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1207.67717</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1428.79647</v>
-      </c>
-      <c r="J4" t="n">
-        <v>736.41133</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1383.67678</v>
-      </c>
-      <c r="L4" t="n">
-        <v>209.41541</v>
-      </c>
-      <c r="M4" t="n">
-        <v>283.87638</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2471.03631</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2120.59235</v>
-      </c>
-      <c r="P4" t="n">
-        <v>393.43105</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>860.54184</v>
-      </c>
-      <c r="R4" t="n">
-        <v>477.5751</v>
-      </c>
-      <c r="S4" t="n">
-        <v>239.1566</v>
-      </c>
-      <c r="T4" t="n">
-        <v>669.71991</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1022.4835</v>
-      </c>
-      <c r="V4" t="n">
-        <v>502.75111</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3752.18568</v>
-      </c>
-      <c r="X4" t="n">
-        <v>20570.47403</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3611.55004</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2431.48344</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>448.27064</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3712.0635</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6353.47259</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3878.55966</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1633.8098</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>93887.94508</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1754.04253</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1408.55839</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>4300.46477</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>470.70472</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1139.12561</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1798.42971</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1630.7095</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>7192.7233</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>205.00164</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
